--- a/biology/Microbiologie/Halomonadaceae/Halomonadaceae.xlsx
+++ b/biology/Microbiologie/Halomonadaceae/Halomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halomonadaceae forme une famille de protéobactéries composée des genres suivants :
 Carnimonas
@@ -519,9 +531,11 @@
           <t>Arsenic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des chercheurs de la NASA ont identifié une bactérie de cette famille, GFAJ-1 du genre Halomonas, capable de remplacer le phosphore par de l'arsenic comme constituant de base de son ADN, de son ATP et dans ses protéines[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des chercheurs de la NASA ont identifié une bactérie de cette famille, GFAJ-1 du genre Halomonas, capable de remplacer le phosphore par de l'arsenic comme constituant de base de son ADN, de son ATP et dans ses protéines,.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 janv. 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 janv. 2011) :
 Carnimonas
 Chromohalobacter
 Cobetia
@@ -564,7 +580,7 @@
 Salicola
 Salinicola
 Zymobacter
-Selon World Register of Marine Species                               (9 janv. 2011)[4] :
+Selon World Register of Marine Species                               (9 janv. 2011) :
 genre Halomonas</t>
         </is>
       </c>
